--- a/Texts/Город Сокровищ/Все персонажи/Шеймин 6 (Доставка).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шеймин 6 (Доставка).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="219">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -661,6 +661,21 @@
   </si>
   <si>
     <t>Éîõïñíàøéÿ</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0207.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0310.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0401.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2007.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2107.ssb</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1145,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="B5" s="4">
         <v>20</v>
       </c>
@@ -1144,7 +1162,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="B6" s="4">
         <v>24</v>
       </c>
@@ -1158,7 +1179,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="B7" s="4">
         <v>32</v>
       </c>
@@ -1172,7 +1196,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="B8" s="4">
         <v>36</v>
       </c>
@@ -1186,7 +1213,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="B9" s="4">
         <v>42</v>
       </c>
